--- a/xlsx/美国州份依加入联邦顺序排列列表_intext.xlsx
+++ b/xlsx/美国州份依加入联邦顺序排列列表_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="289">
   <si>
     <t>美国州份依加入联邦顺序排列列表</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国州份依加入联邦顺序排列列表</t>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国州份依加入联邦顺序排列列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%81%E4%B8%89%E5%B7%9E</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>美國獨立宣言</t>
+    <t>美国独立宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E8%81%94%E6%9D%A1%E4%BE%8B</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B50%E5%B7%9E25%E7%BE%8E%E5%88%86%E7%B4%80%E5%BF%B5%E5%B9%A3</t>
   </si>
   <si>
-    <t>美國50州25美分紀念幣</t>
+    <t>美国50州25美分纪念币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>美國內戰</t>
+    <t>美国内战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ordinance_of_Secession</t>
@@ -95,25 +95,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E9%82%A6%E8%81%AF</t>
   </si>
   <si>
-    <t>美利堅邦聯</t>
+    <t>美利坚邦联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%87%8D%E5%BB%BA%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>美國重建時期</t>
+    <t>美国重建时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>美國最高法院</t>
+    <t>美国最高法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E%E8%A8%B4%E6%87%B7%E7%89%B9%E6%A1%88</t>
   </si>
   <si>
-    <t>德克薩斯州訴懷特案</t>
+    <t>德克萨斯州诉怀特案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%E7%93%A6%E5%B7%9E</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>賓夕法尼亞州</t>
+    <t>宾夕法尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E7%9C%81</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐澤西州</t>
+    <t>纽泽西州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Province_of_New_Jersey</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Province_of_Georgia</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Province_of_Massachusetts_Bay</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E8%98%AD%E5%B7%9E</t>
   </si>
   <si>
-    <t>馬里蘭州</t>
+    <t>马里兰州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E9%A9%AC%E9%87%8C%E5%85%B0%E7%9C%81</t>
@@ -233,19 +233,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維吉尼亞州</t>
+    <t>维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E8%87%AA%E6%B2%BB%E9%A0%98</t>
   </si>
   <si>
-    <t>維吉尼亞自治領</t>
+    <t>维吉尼亚自治领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E7%BA%BD%E7%BA%A6%E7%9C%81</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>北卡羅來納州</t>
+    <t>北卡罗来纳州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Province_of_North_Carolina</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Colony_of_Rhode_Island_and_Providence_Plantations</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>佛蒙特共和國</t>
+    <t>佛蒙特共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>田納西州</t>
+    <t>田纳西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>西北領地</t>
+    <t>西北领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>印第安納州</t>
+    <t>印第安纳州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E9%A2%86%E5%9C%B0</t>
@@ -353,37 +353,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>密西西比領地</t>
+    <t>密西西比领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E5%B7%9E</t>
   </si>
   <si>
-    <t>伊利諾伊州</t>
+    <t>伊利诺伊州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AB%BE%E4%BC%8A%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>伊利諾伊領地</t>
+    <t>伊利诺伊领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>阿拉巴馬州</t>
+    <t>阿拉巴马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E5%B7%B4%E9%A6%AC%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>阿拉巴馬領地</t>
+    <t>阿拉巴马领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>緬因州</t>
+    <t>缅因州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/District_of_Maine</t>
@@ -395,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>密蘇里領地</t>
+    <t>密苏里领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -425,37 +425,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>密歇根領地</t>
+    <t>密歇根领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>佛羅里達州</t>
+    <t>佛罗里达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>佛羅里達領地</t>
+    <t>佛罗里达领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>德克薩斯州</t>
+    <t>德克萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>德克薩斯共和國</t>
+    <t>德克萨斯共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛荷華州</t>
+    <t>爱荷华州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%8D%B7%E5%8D%8E%E9%A2%86%E5%9C%B0</t>
@@ -473,67 +473,67 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>威斯康辛領地</t>
+    <t>威斯康辛领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%89%B2%E8%AE%93%E5%9C%B0</t>
   </si>
   <si>
-    <t>墨西哥割讓地</t>
+    <t>墨西哥割让地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>明尼蘇達領地</t>
+    <t>明尼苏达领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧勒岡州</t>
+    <t>奥勒冈州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8B%92%E5%B2%A1%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>奧勒岡領地</t>
+    <t>奥勒冈领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>堪薩斯領地</t>
+    <t>堪萨斯领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E9%9D%88_(%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>惠靈 (西維吉尼亞州)</t>
+    <t>惠灵 (西维吉尼亚州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Restored_government_of_Virginia</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%A5%87%E8%92%99_(%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>里奇蒙 (維吉尼亞州)</t>
+    <t>里奇蒙 (维吉尼亚州)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Virginia_in_the_American_Civil_War</t>
@@ -557,19 +557,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>內華達領地</t>
+    <t>内华达领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>亞利桑那領地</t>
+    <t>亚利桑那领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E9%A2%86%E5%9C%B0</t>
@@ -581,19 +581,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>內布拉斯加領地</t>
+    <t>内布拉斯加领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BD%97%E6%8B%89%E5%A4%9A%E9%A2%86%E5%9C%B0</t>
@@ -605,19 +605,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>北達科他州</t>
+    <t>北达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%A7%91%E4%BB%96%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>達科他領地</t>
+    <t>达科他领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>南達科他州</t>
+    <t>南达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -629,61 +629,61 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>蒙大拿領地</t>
+    <t>蒙大拿领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E5%B7%9E</t>
   </si>
   <si>
-    <t>華盛頓州</t>
+    <t>华盛顿州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>華盛頓領地</t>
+    <t>华盛顿领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E5%B7%9E</t>
   </si>
   <si>
-    <t>愛達荷州</t>
+    <t>爱达荷州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E9%81%94%E8%8D%B7%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>愛達荷領地</t>
+    <t>爱达荷领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
   </si>
   <si>
-    <t>懷俄明州</t>
+    <t>怀俄明州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>猶他州</t>
+    <t>犹他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>奧克拉荷馬領地</t>
+    <t>奥克拉荷马领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%9C%B0%E5%AE%89%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>印地安領地</t>
+    <t>印地安领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
@@ -695,13 +695,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>新墨西哥領地</t>
+    <t>新墨西哥领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
@@ -713,19 +713,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%B1%AC%E5%8C%97%E7%BE%8E</t>
   </si>
   <si>
-    <t>俄屬北美</t>
+    <t>俄属北美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>阿拉斯加部門</t>
+    <t>阿拉斯加部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>阿拉斯加地區</t>
+    <t>阿拉斯加地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E9%A2%86%E5%9C%B0</t>
@@ -743,19 +743,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>夏威夷王國</t>
+    <t>夏威夷王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>夏威夷共和國</t>
+    <t>夏威夷共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>夏威夷領地</t>
+    <t>夏威夷领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E6%9D%B0%E6%98%8E%C2%B7%E5%93%88%E9%87%8C%E6%A3%AE</t>
@@ -767,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%91%84%E5%B9%A3%E5%B1%80</t>
   </si>
   <si>
-    <t>美國鑄幣局</t>
+    <t>美国铸币局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:US_State_Lists</t>
@@ -779,25 +779,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%92%8C%E9%A0%98%E5%9C%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份和領地列表</t>
+    <t>美国州份和领地列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B8%BD%E9%9D%A2%E7%A9%8D%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%B7%9E%E5%88%A5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>依總面積排列的美國州別列表</t>
+    <t>依总面积排列的美国州别列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州首府列表</t>
+    <t>美国各州首府列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_governors%27_residences_in_the_United_States</t>
@@ -809,19 +806,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州州議會大廈列表</t>
+    <t>美国各州州议会大厦列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州最大城市列表</t>
+    <t>美国各州最大城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%90%8D%E7%A8%B1%E8%A9%9E%E6%BA%90</t>
   </si>
   <si>
-    <t>美國各州名稱詞源</t>
+    <t>美国各州名称词源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -833,37 +830,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%9D%87%E7%94%9F%E7%94%A2%E7%B8%BD%E9%A1%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人均生產總額列表</t>
+    <t>美国各州人均生产总额列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人口列表</t>
+    <t>美国各州人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份人口密度列表</t>
+    <t>美国州份人口密度列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E9%83%B5%E6%94%BF%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份郵政縮寫列表</t>
+    <t>美国州份邮政缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州時區列表</t>
+    <t>美国各州时区列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -5025,7 +5022,7 @@
         <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>6</v>
       </c>
       <c r="G131" t="n">
         <v>4</v>
@@ -5080,10 +5077,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5109,10 +5106,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5138,10 +5135,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5167,10 +5164,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
         <v>261</v>
-      </c>
-      <c r="F136" t="s">
-        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5196,10 +5193,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" t="s">
         <v>263</v>
-      </c>
-      <c r="F137" t="s">
-        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5225,10 +5222,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" t="s">
         <v>265</v>
-      </c>
-      <c r="F138" t="s">
-        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5254,10 +5251,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>266</v>
+      </c>
+      <c r="F139" t="s">
         <v>267</v>
-      </c>
-      <c r="F139" t="s">
-        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5283,10 +5280,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" t="s">
         <v>269</v>
-      </c>
-      <c r="F140" t="s">
-        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5312,10 +5309,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
         <v>271</v>
-      </c>
-      <c r="F141" t="s">
-        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5341,10 +5338,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
         <v>273</v>
-      </c>
-      <c r="F142" t="s">
-        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5370,10 +5367,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>274</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
-      </c>
-      <c r="F143" t="s">
-        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5399,10 +5396,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" t="s">
         <v>277</v>
-      </c>
-      <c r="F144" t="s">
-        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5428,10 +5425,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>278</v>
+      </c>
+      <c r="F145" t="s">
         <v>279</v>
-      </c>
-      <c r="F145" t="s">
-        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5457,10 +5454,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>280</v>
+      </c>
+      <c r="F146" t="s">
         <v>281</v>
-      </c>
-      <c r="F146" t="s">
-        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5486,10 +5483,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>282</v>
+      </c>
+      <c r="F147" t="s">
         <v>283</v>
-      </c>
-      <c r="F147" t="s">
-        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5515,10 +5512,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>284</v>
+      </c>
+      <c r="F148" t="s">
         <v>285</v>
-      </c>
-      <c r="F148" t="s">
-        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5544,10 +5541,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>286</v>
+      </c>
+      <c r="F149" t="s">
         <v>287</v>
-      </c>
-      <c r="F149" t="s">
-        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5573,10 +5570,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
